--- a/admin/mappings/Affiche_Mapping.xlsx
+++ b/admin/mappings/Affiche_Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/Dropbox/digipolis/arches/mappings/Affiche/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/Dropbox/TW Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6AD92A-0C19-8C44-85C0-7595ECE66E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576452BF-3DF4-BA45-A7AD-240D3CC8CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -158,6 +164,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,17 +535,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
